--- a/Chapter12/Chapter 12 - Aged Receivables Aging.xlsx
+++ b/Chapter12/Chapter 12 - Aged Receivables Aging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCA68B-4863-4148-B19D-D2AA1F21C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280697B6-62B9-4795-8AB9-13467E0F4D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1620" yWindow="750" windowWidth="13380" windowHeight="7005" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,15 +491,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -507,7 +498,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -515,14 +518,11 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M31" sqref="M31:N31"/>
     </sheetView>
   </sheetViews>
@@ -869,4019 +869,4087 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16" t="s">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>44805</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="3">
         <v>90</v>
       </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6">
-        <v>90</v>
-      </c>
-      <c r="S6" s="6"/>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12">
+        <v>90</v>
+      </c>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L7" s="4">
         <v>90</v>
       </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12"/>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13"/>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12">
-        <v>90</v>
-      </c>
-      <c r="S7" s="12"/>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13">
+        <v>90</v>
+      </c>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>44805</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="3">
         <v>90</v>
       </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6">
-        <v>90</v>
-      </c>
-      <c r="S9" s="6"/>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12">
+        <v>90</v>
+      </c>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L10" s="4">
         <v>90</v>
       </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12"/>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13"/>
       <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12">
-        <v>90</v>
-      </c>
-      <c r="S10" s="12"/>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13">
+        <v>90</v>
+      </c>
+      <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <v>44805</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="3">
         <v>1650</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12"/>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6">
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12">
         <v>1650</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <v>44805</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="3">
         <v>128.41999999999999</v>
       </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6"/>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6">
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12">
         <v>128.41999999999999</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L14" s="4">
         <v>1778.42</v>
       </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12"/>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13"/>
       <c r="O14" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12">
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13">
         <v>1778.42</v>
       </c>
-      <c r="S14" s="12"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <v>44682</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6"/>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12"/>
       <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6">
-        <v>90</v>
-      </c>
-      <c r="S16" s="6"/>
+      <c r="P16" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12">
+        <v>90</v>
+      </c>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <v>44713</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6"/>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12"/>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="12">
         <v>875</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12">
         <v>875</v>
       </c>
-      <c r="S17" s="6"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="8"/>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="11">
         <v>44743</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6"/>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12"/>
       <c r="O18" s="3">
         <v>875</v>
       </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6">
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12">
         <v>875</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <v>44774</v>
       </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="12">
         <v>875</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6">
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12">
         <v>875</v>
       </c>
-      <c r="S19" s="6"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="11">
         <v>44805</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="3">
         <v>875</v>
       </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6"/>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12"/>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6">
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12">
         <v>875</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L21" s="4">
         <v>875</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="13">
         <v>875</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="4">
         <v>875</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="13">
         <v>965</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13">
         <v>3590</v>
       </c>
-      <c r="S21" s="12"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="11">
         <v>44805</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="3">
         <v>1375</v>
       </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6"/>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12"/>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6">
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12">
         <v>1375</v>
       </c>
-      <c r="S23" s="6"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <v>44805</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="3">
         <v>203.42</v>
       </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6"/>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12"/>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6">
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12">
         <v>203.42</v>
       </c>
-      <c r="S24" s="6"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L25" s="4">
         <v>1578.42</v>
       </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="12"/>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13"/>
       <c r="O25" s="4">
         <v>0</v>
       </c>
-      <c r="P25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12">
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13">
         <v>1578.42</v>
       </c>
-      <c r="S25" s="12"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="11">
         <v>44805</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="3">
         <v>90</v>
       </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6"/>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12"/>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6">
-        <v>90</v>
-      </c>
-      <c r="S27" s="6"/>
+      <c r="P27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12">
+        <v>90</v>
+      </c>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L28" s="4">
         <v>90</v>
       </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="12"/>
+      <c r="M28" s="13">
+        <v>0</v>
+      </c>
+      <c r="N28" s="13"/>
       <c r="O28" s="4">
         <v>0</v>
       </c>
-      <c r="P28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12">
-        <v>90</v>
-      </c>
-      <c r="S28" s="12"/>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13">
+        <v>90</v>
+      </c>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="11">
         <v>44805</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="3">
         <v>126.4</v>
       </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6"/>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12"/>
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6">
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12">
         <v>126.4</v>
       </c>
-      <c r="S30" s="6"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L31" s="4">
         <v>126.4</v>
       </c>
-      <c r="M31" s="12">
-        <v>0</v>
-      </c>
-      <c r="N31" s="12"/>
+      <c r="M31" s="13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13"/>
       <c r="O31" s="4">
         <v>0</v>
       </c>
-      <c r="P31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12">
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13">
         <v>126.4</v>
       </c>
-      <c r="S31" s="12"/>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="11">
         <v>44805</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="3">
         <v>90</v>
       </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6"/>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12"/>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6">
-        <v>90</v>
-      </c>
-      <c r="S33" s="6"/>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12">
+        <v>90</v>
+      </c>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L34" s="4">
         <v>90</v>
       </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
-      <c r="N34" s="12"/>
+      <c r="M34" s="13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="13"/>
       <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12">
-        <v>90</v>
-      </c>
-      <c r="S34" s="12"/>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13">
+        <v>90</v>
+      </c>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="11">
         <v>44805</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="3">
         <v>1665</v>
       </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6"/>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
+      <c r="N36" s="12"/>
       <c r="O36" s="3">
         <v>0</v>
       </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6">
+      <c r="P36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12">
         <v>1665</v>
       </c>
-      <c r="S36" s="6"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="11">
         <v>44805</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="3">
         <v>162.72999999999999</v>
       </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6"/>
+      <c r="M37" s="12">
+        <v>0</v>
+      </c>
+      <c r="N37" s="12"/>
       <c r="O37" s="3">
         <v>0</v>
       </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6">
+      <c r="P37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12">
         <v>162.72999999999999</v>
       </c>
-      <c r="S37" s="6"/>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L38" s="4">
         <v>1827.73</v>
       </c>
-      <c r="M38" s="12">
-        <v>0</v>
-      </c>
-      <c r="N38" s="12"/>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13"/>
       <c r="O38" s="4">
         <v>0</v>
       </c>
-      <c r="P38" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12">
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13">
         <v>1827.73</v>
       </c>
-      <c r="S38" s="12"/>
+      <c r="S38" s="13"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="11">
         <v>44805</v>
       </c>
-      <c r="K40" s="14"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="3">
         <v>90</v>
       </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6"/>
+      <c r="M40" s="12">
+        <v>0</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6">
-        <v>90</v>
-      </c>
-      <c r="S40" s="6"/>
+      <c r="P40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12">
+        <v>90</v>
+      </c>
+      <c r="S40" s="12"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L41" s="4">
         <v>90</v>
       </c>
-      <c r="M41" s="12">
-        <v>0</v>
-      </c>
-      <c r="N41" s="12"/>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13"/>
       <c r="O41" s="4">
         <v>0</v>
       </c>
-      <c r="P41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12">
-        <v>90</v>
-      </c>
-      <c r="S41" s="12"/>
+      <c r="P41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13">
+        <v>90</v>
+      </c>
+      <c r="S41" s="13"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="11">
         <v>44743</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6"/>
+      <c r="M43" s="12">
+        <v>0</v>
+      </c>
+      <c r="N43" s="12"/>
       <c r="O43" s="3">
         <v>90</v>
       </c>
-      <c r="P43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6">
-        <v>90</v>
-      </c>
-      <c r="S43" s="6"/>
+      <c r="P43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12">
+        <v>90</v>
+      </c>
+      <c r="S43" s="12"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="8"/>
+      <c r="D44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="11">
         <v>44774</v>
       </c>
-      <c r="K44" s="14"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="12">
         <v>875</v>
       </c>
-      <c r="N44" s="6"/>
+      <c r="N44" s="12"/>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6">
+      <c r="P44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12">
         <v>875</v>
       </c>
-      <c r="S44" s="6"/>
+      <c r="S44" s="12"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="11">
         <v>44805</v>
       </c>
-      <c r="K45" s="14"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="3">
         <v>875</v>
       </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6"/>
+      <c r="M45" s="12">
+        <v>0</v>
+      </c>
+      <c r="N45" s="12"/>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6">
+      <c r="P45" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12">
         <v>875</v>
       </c>
-      <c r="S45" s="6"/>
+      <c r="S45" s="12"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L46" s="4">
         <v>875</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="13">
         <v>875</v>
       </c>
-      <c r="N46" s="12"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="4">
         <v>90</v>
       </c>
-      <c r="P46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12">
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13">
         <v>1840</v>
       </c>
-      <c r="S46" s="12"/>
+      <c r="S46" s="13"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="11">
         <v>44562</v>
       </c>
-      <c r="K48" s="14"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6"/>
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="12"/>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="12">
         <v>45</v>
       </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6">
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12">
         <v>45</v>
       </c>
-      <c r="S48" s="6"/>
+      <c r="S48" s="12"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="8"/>
+      <c r="D49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="11">
         <v>44652</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6"/>
+      <c r="M49" s="12">
+        <v>0</v>
+      </c>
+      <c r="N49" s="12"/>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="12">
         <v>45</v>
       </c>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6">
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12">
         <v>45</v>
       </c>
-      <c r="S49" s="6"/>
+      <c r="S49" s="12"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L50" s="4">
         <v>0</v>
       </c>
-      <c r="M50" s="12">
-        <v>0</v>
-      </c>
-      <c r="N50" s="12"/>
+      <c r="M50" s="13">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13"/>
       <c r="O50" s="4">
         <v>0</v>
       </c>
-      <c r="P50" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12">
-        <v>90</v>
-      </c>
-      <c r="S50" s="12"/>
+      <c r="P50" s="13">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13">
+        <v>90</v>
+      </c>
+      <c r="S50" s="13"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="8"/>
+      <c r="D52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="11">
         <v>44805</v>
       </c>
-      <c r="K52" s="14"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="3">
         <v>165</v>
       </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6"/>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12"/>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6">
+      <c r="P52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12">
         <v>165</v>
       </c>
-      <c r="S52" s="6"/>
+      <c r="S52" s="12"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L53" s="4">
         <v>165</v>
       </c>
-      <c r="M53" s="12">
-        <v>0</v>
-      </c>
-      <c r="N53" s="12"/>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13"/>
       <c r="O53" s="4">
         <v>0</v>
       </c>
-      <c r="P53" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12">
+      <c r="P53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13">
         <v>165</v>
       </c>
-      <c r="S53" s="12"/>
+      <c r="S53" s="13"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="11">
         <v>44805</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="3">
         <v>8900</v>
       </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6"/>
+      <c r="M55" s="12">
+        <v>0</v>
+      </c>
+      <c r="N55" s="12"/>
       <c r="O55" s="3">
         <v>0</v>
       </c>
-      <c r="P55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6">
+      <c r="P55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12">
         <v>8900</v>
       </c>
-      <c r="S55" s="6"/>
+      <c r="S55" s="12"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="11">
         <v>44805</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="11"/>
       <c r="L56" s="3">
         <v>3260.78</v>
       </c>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6"/>
+      <c r="M56" s="12">
+        <v>0</v>
+      </c>
+      <c r="N56" s="12"/>
       <c r="O56" s="3">
         <v>0</v>
       </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6">
+      <c r="P56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12">
         <v>3260.78</v>
       </c>
-      <c r="S56" s="6"/>
+      <c r="S56" s="12"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L57" s="4">
         <v>12160.78</v>
       </c>
-      <c r="M57" s="12">
-        <v>0</v>
-      </c>
-      <c r="N57" s="12"/>
+      <c r="M57" s="13">
+        <v>0</v>
+      </c>
+      <c r="N57" s="13"/>
       <c r="O57" s="4">
         <v>0</v>
       </c>
-      <c r="P57" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12">
+      <c r="P57" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13">
         <v>12160.78</v>
       </c>
-      <c r="S57" s="12"/>
+      <c r="S57" s="13"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D59" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="8"/>
+      <c r="D59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="9"/>
       <c r="F59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="11">
         <v>44805</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="11"/>
       <c r="L59" s="3">
         <v>90</v>
       </c>
-      <c r="M59" s="6">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6"/>
+      <c r="M59" s="12">
+        <v>0</v>
+      </c>
+      <c r="N59" s="12"/>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6">
-        <v>90</v>
-      </c>
-      <c r="S59" s="6"/>
+      <c r="P59" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12">
+        <v>90</v>
+      </c>
+      <c r="S59" s="12"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L60" s="4">
         <v>90</v>
       </c>
-      <c r="M60" s="12">
-        <v>0</v>
-      </c>
-      <c r="N60" s="12"/>
+      <c r="M60" s="13">
+        <v>0</v>
+      </c>
+      <c r="N60" s="13"/>
       <c r="O60" s="4">
         <v>0</v>
       </c>
-      <c r="P60" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12">
-        <v>90</v>
-      </c>
-      <c r="S60" s="12"/>
+      <c r="P60" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13">
+        <v>90</v>
+      </c>
+      <c r="S60" s="13"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="8"/>
+      <c r="D62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="11">
         <v>44805</v>
       </c>
-      <c r="K62" s="14"/>
+      <c r="K62" s="11"/>
       <c r="L62" s="3">
         <v>90</v>
       </c>
-      <c r="M62" s="6">
-        <v>0</v>
-      </c>
-      <c r="N62" s="6"/>
+      <c r="M62" s="12">
+        <v>0</v>
+      </c>
+      <c r="N62" s="12"/>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6">
-        <v>90</v>
-      </c>
-      <c r="S62" s="6"/>
+      <c r="P62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12">
+        <v>90</v>
+      </c>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L63" s="4">
         <v>90</v>
       </c>
-      <c r="M63" s="12">
-        <v>0</v>
-      </c>
-      <c r="N63" s="12"/>
+      <c r="M63" s="13">
+        <v>0</v>
+      </c>
+      <c r="N63" s="13"/>
       <c r="O63" s="4">
         <v>0</v>
       </c>
-      <c r="P63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12">
-        <v>90</v>
-      </c>
-      <c r="S63" s="12"/>
+      <c r="P63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13">
+        <v>90</v>
+      </c>
+      <c r="S63" s="13"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="11">
         <v>44805</v>
       </c>
-      <c r="K65" s="14"/>
+      <c r="K65" s="11"/>
       <c r="L65" s="3">
         <v>2040</v>
       </c>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="N65" s="6"/>
+      <c r="M65" s="12">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12"/>
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6">
+      <c r="P65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12">
         <v>2040</v>
       </c>
-      <c r="S65" s="6"/>
+      <c r="S65" s="12"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="11">
         <v>44805</v>
       </c>
-      <c r="K66" s="14"/>
+      <c r="K66" s="11"/>
       <c r="L66" s="3">
         <v>162.72999999999999</v>
       </c>
-      <c r="M66" s="6">
-        <v>0</v>
-      </c>
-      <c r="N66" s="6"/>
+      <c r="M66" s="12">
+        <v>0</v>
+      </c>
+      <c r="N66" s="12"/>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6">
+      <c r="P66" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12">
         <v>162.72999999999999</v>
       </c>
-      <c r="S66" s="6"/>
+      <c r="S66" s="12"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L67" s="4">
         <v>2202.73</v>
       </c>
-      <c r="M67" s="12">
-        <v>0</v>
-      </c>
-      <c r="N67" s="12"/>
+      <c r="M67" s="13">
+        <v>0</v>
+      </c>
+      <c r="N67" s="13"/>
       <c r="O67" s="4">
         <v>0</v>
       </c>
-      <c r="P67" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12">
+      <c r="P67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13">
         <v>2202.73</v>
       </c>
-      <c r="S67" s="12"/>
+      <c r="S67" s="13"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="8"/>
+      <c r="D69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="11">
         <v>44774</v>
       </c>
-      <c r="K69" s="14"/>
+      <c r="K69" s="11"/>
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="6">
-        <v>90</v>
-      </c>
-      <c r="N69" s="6"/>
+      <c r="M69" s="12">
+        <v>90</v>
+      </c>
+      <c r="N69" s="12"/>
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6">
-        <v>90</v>
-      </c>
-      <c r="S69" s="6"/>
+      <c r="P69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12">
+        <v>90</v>
+      </c>
+      <c r="S69" s="12"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="8"/>
+      <c r="D70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="11">
         <v>44805</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="11"/>
       <c r="L70" s="3">
         <v>875</v>
       </c>
-      <c r="M70" s="6">
-        <v>0</v>
-      </c>
-      <c r="N70" s="6"/>
+      <c r="M70" s="12">
+        <v>0</v>
+      </c>
+      <c r="N70" s="12"/>
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6">
+      <c r="P70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12">
         <v>875</v>
       </c>
-      <c r="S70" s="6"/>
+      <c r="S70" s="12"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L71" s="4">
         <v>875</v>
       </c>
-      <c r="M71" s="12">
-        <v>90</v>
-      </c>
-      <c r="N71" s="12"/>
+      <c r="M71" s="13">
+        <v>90</v>
+      </c>
+      <c r="N71" s="13"/>
       <c r="O71" s="4">
         <v>0</v>
       </c>
-      <c r="P71" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12">
+      <c r="P71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13">
         <v>965</v>
       </c>
-      <c r="S71" s="12"/>
+      <c r="S71" s="13"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H72" s="15"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="11">
         <v>44805</v>
       </c>
-      <c r="K73" s="14"/>
+      <c r="K73" s="11"/>
       <c r="L73" s="3">
         <v>10522.5</v>
       </c>
-      <c r="M73" s="6">
-        <v>0</v>
-      </c>
-      <c r="N73" s="6"/>
+      <c r="M73" s="12">
+        <v>0</v>
+      </c>
+      <c r="N73" s="12"/>
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6">
+      <c r="P73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12">
         <v>10522.5</v>
       </c>
-      <c r="S73" s="6"/>
+      <c r="S73" s="12"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="11">
         <v>44805</v>
       </c>
-      <c r="K74" s="14"/>
+      <c r="K74" s="11"/>
       <c r="L74" s="3">
         <v>3751.02</v>
       </c>
-      <c r="M74" s="6">
-        <v>0</v>
-      </c>
-      <c r="N74" s="6"/>
+      <c r="M74" s="12">
+        <v>0</v>
+      </c>
+      <c r="N74" s="12"/>
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6">
+      <c r="P74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12">
         <v>3751.02</v>
       </c>
-      <c r="S74" s="6"/>
+      <c r="S74" s="12"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L75" s="4">
         <v>14273.52</v>
       </c>
-      <c r="M75" s="12">
-        <v>0</v>
-      </c>
-      <c r="N75" s="12"/>
+      <c r="M75" s="13">
+        <v>0</v>
+      </c>
+      <c r="N75" s="13"/>
       <c r="O75" s="4">
         <v>0</v>
       </c>
-      <c r="P75" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12">
+      <c r="P75" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13">
         <v>14273.52</v>
       </c>
-      <c r="S75" s="12"/>
+      <c r="S75" s="13"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="9"/>
       <c r="F76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="8"/>
+      <c r="D77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="9"/>
       <c r="F77" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="11">
         <v>44805</v>
       </c>
-      <c r="K77" s="14"/>
+      <c r="K77" s="11"/>
       <c r="L77" s="3">
         <v>90</v>
       </c>
-      <c r="M77" s="6">
-        <v>0</v>
-      </c>
-      <c r="N77" s="6"/>
+      <c r="M77" s="12">
+        <v>0</v>
+      </c>
+      <c r="N77" s="12"/>
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6">
-        <v>90</v>
-      </c>
-      <c r="S77" s="6"/>
+      <c r="P77" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12">
+        <v>90</v>
+      </c>
+      <c r="S77" s="12"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L78" s="4">
         <v>90</v>
       </c>
-      <c r="M78" s="12">
-        <v>0</v>
-      </c>
-      <c r="N78" s="12"/>
+      <c r="M78" s="13">
+        <v>0</v>
+      </c>
+      <c r="N78" s="13"/>
       <c r="O78" s="4">
         <v>0</v>
       </c>
-      <c r="P78" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12">
-        <v>90</v>
-      </c>
-      <c r="S78" s="12"/>
+      <c r="P78" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13">
+        <v>90</v>
+      </c>
+      <c r="S78" s="13"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H79" s="15"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="11">
         <v>44562</v>
       </c>
-      <c r="K80" s="14"/>
+      <c r="K80" s="11"/>
       <c r="L80" s="3">
         <v>0</v>
       </c>
-      <c r="M80" s="6">
-        <v>0</v>
-      </c>
-      <c r="N80" s="6"/>
+      <c r="M80" s="12">
+        <v>0</v>
+      </c>
+      <c r="N80" s="12"/>
       <c r="O80" s="3">
         <v>0</v>
       </c>
-      <c r="P80" s="6">
+      <c r="P80" s="12">
         <v>967.2</v>
       </c>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6">
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12">
         <v>967.2</v>
       </c>
-      <c r="S80" s="6"/>
+      <c r="S80" s="12"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="11">
         <v>44593</v>
       </c>
-      <c r="K81" s="14"/>
+      <c r="K81" s="11"/>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="6">
-        <v>0</v>
-      </c>
-      <c r="N81" s="6"/>
+      <c r="M81" s="12">
+        <v>0</v>
+      </c>
+      <c r="N81" s="12"/>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="6">
+      <c r="P81" s="12">
         <v>2204</v>
       </c>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6">
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12">
         <v>2204</v>
       </c>
-      <c r="S81" s="6"/>
+      <c r="S81" s="12"/>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="11">
         <v>44593</v>
       </c>
-      <c r="K82" s="14"/>
+      <c r="K82" s="11"/>
       <c r="L82" s="3">
         <v>0</v>
       </c>
-      <c r="M82" s="6">
-        <v>0</v>
-      </c>
-      <c r="N82" s="6"/>
+      <c r="M82" s="12">
+        <v>0</v>
+      </c>
+      <c r="N82" s="12"/>
       <c r="O82" s="3">
         <v>0</v>
       </c>
-      <c r="P82" s="6">
+      <c r="P82" s="12">
         <v>154.6</v>
       </c>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6">
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12">
         <v>154.6</v>
       </c>
-      <c r="S82" s="6"/>
+      <c r="S82" s="12"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="11">
         <v>44621</v>
       </c>
-      <c r="K83" s="14"/>
+      <c r="K83" s="11"/>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="6">
-        <v>0</v>
-      </c>
-      <c r="N83" s="6"/>
+      <c r="M83" s="12">
+        <v>0</v>
+      </c>
+      <c r="N83" s="12"/>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83" s="12">
         <v>154.6</v>
       </c>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6">
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12">
         <v>154.6</v>
       </c>
-      <c r="S83" s="6"/>
+      <c r="S83" s="12"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="11">
         <v>44652</v>
       </c>
-      <c r="K84" s="14"/>
+      <c r="K84" s="11"/>
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="6">
-        <v>0</v>
-      </c>
-      <c r="N84" s="6"/>
+      <c r="M84" s="12">
+        <v>0</v>
+      </c>
+      <c r="N84" s="12"/>
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84" s="12">
         <v>154.6</v>
       </c>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6">
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12">
         <v>154.6</v>
       </c>
-      <c r="S84" s="6"/>
+      <c r="S84" s="12"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="11">
         <v>44682</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="11"/>
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="6">
-        <v>0</v>
-      </c>
-      <c r="N85" s="6"/>
+      <c r="M85" s="12">
+        <v>0</v>
+      </c>
+      <c r="N85" s="12"/>
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="6">
+      <c r="P85" s="12">
         <v>154.6</v>
       </c>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6">
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12">
         <v>154.6</v>
       </c>
-      <c r="S85" s="6"/>
+      <c r="S85" s="12"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="11">
         <v>44713</v>
       </c>
-      <c r="K86" s="14"/>
+      <c r="K86" s="11"/>
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="6">
-        <v>0</v>
-      </c>
-      <c r="N86" s="6"/>
+      <c r="M86" s="12">
+        <v>0</v>
+      </c>
+      <c r="N86" s="12"/>
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="6">
+      <c r="P86" s="12">
         <v>154.6</v>
       </c>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6">
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12">
         <v>154.6</v>
       </c>
-      <c r="S86" s="6"/>
+      <c r="S86" s="12"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J87" s="11">
         <v>44743</v>
       </c>
-      <c r="K87" s="14"/>
+      <c r="K87" s="11"/>
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="6">
-        <v>0</v>
-      </c>
-      <c r="N87" s="6"/>
+      <c r="M87" s="12">
+        <v>0</v>
+      </c>
+      <c r="N87" s="12"/>
       <c r="O87" s="3">
         <v>154.6</v>
       </c>
-      <c r="P87" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6">
+      <c r="P87" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12">
         <v>154.6</v>
       </c>
-      <c r="S87" s="6"/>
+      <c r="S87" s="12"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="11">
         <v>44774</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="11"/>
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88" s="12">
         <v>154.6</v>
       </c>
-      <c r="N88" s="6"/>
+      <c r="N88" s="12"/>
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6">
+      <c r="P88" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12">
         <v>154.6</v>
       </c>
-      <c r="S88" s="6"/>
+      <c r="S88" s="12"/>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="11">
         <v>44805</v>
       </c>
-      <c r="K89" s="14"/>
+      <c r="K89" s="11"/>
       <c r="L89" s="3">
         <v>154.6</v>
       </c>
-      <c r="M89" s="6">
-        <v>0</v>
-      </c>
-      <c r="N89" s="6"/>
+      <c r="M89" s="12">
+        <v>0</v>
+      </c>
+      <c r="N89" s="12"/>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6">
+      <c r="P89" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12">
         <v>154.6</v>
       </c>
-      <c r="S89" s="6"/>
+      <c r="S89" s="12"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L90" s="4">
         <v>154.6</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M90" s="13">
         <v>154.6</v>
       </c>
-      <c r="N90" s="12"/>
+      <c r="N90" s="13"/>
       <c r="O90" s="4">
         <v>154.6</v>
       </c>
-      <c r="P90" s="12">
+      <c r="P90" s="13">
         <v>3944.1999999999994</v>
       </c>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12">
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13">
         <v>4408</v>
       </c>
-      <c r="S90" s="12"/>
+      <c r="S90" s="13"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H91" s="15"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="8"/>
+      <c r="D92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="11">
         <v>44805</v>
       </c>
-      <c r="K92" s="14"/>
+      <c r="K92" s="11"/>
       <c r="L92" s="3">
         <v>90</v>
       </c>
-      <c r="M92" s="6">
-        <v>0</v>
-      </c>
-      <c r="N92" s="6"/>
+      <c r="M92" s="12">
+        <v>0</v>
+      </c>
+      <c r="N92" s="12"/>
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6">
-        <v>90</v>
-      </c>
-      <c r="S92" s="6"/>
+      <c r="P92" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12">
+        <v>90</v>
+      </c>
+      <c r="S92" s="12"/>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L93" s="4">
         <v>90</v>
       </c>
-      <c r="M93" s="12">
-        <v>0</v>
-      </c>
-      <c r="N93" s="12"/>
+      <c r="M93" s="13">
+        <v>0</v>
+      </c>
+      <c r="N93" s="13"/>
       <c r="O93" s="4">
         <v>0</v>
       </c>
-      <c r="P93" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12">
-        <v>90</v>
-      </c>
-      <c r="S93" s="12"/>
+      <c r="P93" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13">
+        <v>90</v>
+      </c>
+      <c r="S93" s="13"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H94" s="15"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="14">
+      <c r="J95" s="11">
         <v>44805</v>
       </c>
-      <c r="K95" s="14"/>
+      <c r="K95" s="11"/>
       <c r="L95" s="3">
         <v>110.14</v>
       </c>
-      <c r="M95" s="6">
-        <v>0</v>
-      </c>
-      <c r="N95" s="6"/>
+      <c r="M95" s="12">
+        <v>0</v>
+      </c>
+      <c r="N95" s="12"/>
       <c r="O95" s="3">
         <v>0</v>
       </c>
-      <c r="P95" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6">
+      <c r="P95" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12">
         <v>110.14</v>
       </c>
-      <c r="S95" s="6"/>
+      <c r="S95" s="12"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L96" s="4">
         <v>110.14</v>
       </c>
-      <c r="M96" s="12">
-        <v>0</v>
-      </c>
-      <c r="N96" s="12"/>
+      <c r="M96" s="13">
+        <v>0</v>
+      </c>
+      <c r="N96" s="13"/>
       <c r="O96" s="4">
         <v>0</v>
       </c>
-      <c r="P96" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12">
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13">
         <v>110.14</v>
       </c>
-      <c r="S96" s="12"/>
+      <c r="S96" s="13"/>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="9"/>
       <c r="F97" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="G97" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H97" s="15"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="8"/>
+      <c r="D98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="9"/>
       <c r="F98" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="11">
         <v>44774</v>
       </c>
-      <c r="K98" s="14"/>
+      <c r="K98" s="11"/>
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98" s="12">
         <v>770</v>
       </c>
-      <c r="N98" s="6"/>
+      <c r="N98" s="12"/>
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6">
+      <c r="P98" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12">
         <v>770</v>
       </c>
-      <c r="S98" s="6"/>
+      <c r="S98" s="12"/>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D99" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="8"/>
+      <c r="D99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="11">
         <v>44805</v>
       </c>
-      <c r="K99" s="14"/>
+      <c r="K99" s="11"/>
       <c r="L99" s="3">
         <v>795</v>
       </c>
-      <c r="M99" s="6">
-        <v>0</v>
-      </c>
-      <c r="N99" s="6"/>
+      <c r="M99" s="12">
+        <v>0</v>
+      </c>
+      <c r="N99" s="12"/>
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6">
+      <c r="P99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12">
         <v>795</v>
       </c>
-      <c r="S99" s="6"/>
+      <c r="S99" s="12"/>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L100" s="4">
         <v>795</v>
       </c>
-      <c r="M100" s="12">
+      <c r="M100" s="13">
         <v>770</v>
       </c>
-      <c r="N100" s="12"/>
+      <c r="N100" s="13"/>
       <c r="O100" s="4">
         <v>0</v>
       </c>
-      <c r="P100" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12">
+      <c r="P100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13">
         <v>1565</v>
       </c>
-      <c r="S100" s="12"/>
+      <c r="S100" s="13"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="9"/>
       <c r="F101" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G101" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H101" s="15"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="8"/>
+      <c r="D102" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="9"/>
       <c r="F102" s="2" t="s">
         <v>83</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="11">
         <v>44805</v>
       </c>
-      <c r="K102" s="14"/>
+      <c r="K102" s="11"/>
       <c r="L102" s="3">
         <v>90</v>
       </c>
-      <c r="M102" s="6">
-        <v>0</v>
-      </c>
-      <c r="N102" s="6"/>
+      <c r="M102" s="12">
+        <v>0</v>
+      </c>
+      <c r="N102" s="12"/>
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6">
-        <v>90</v>
-      </c>
-      <c r="S102" s="6"/>
+      <c r="P102" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12">
+        <v>90</v>
+      </c>
+      <c r="S102" s="12"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L103" s="4">
         <v>90</v>
       </c>
-      <c r="M103" s="12">
-        <v>0</v>
-      </c>
-      <c r="N103" s="12"/>
+      <c r="M103" s="13">
+        <v>0</v>
+      </c>
+      <c r="N103" s="13"/>
       <c r="O103" s="4">
         <v>0</v>
       </c>
-      <c r="P103" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12">
-        <v>90</v>
-      </c>
-      <c r="S103" s="12"/>
+      <c r="P103" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13">
+        <v>90</v>
+      </c>
+      <c r="S103" s="13"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="9"/>
       <c r="F104" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H104" s="15"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="8"/>
+      <c r="D105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="9"/>
       <c r="F105" s="2" t="s">
         <v>86</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="14">
+      <c r="J105" s="11">
         <v>44805</v>
       </c>
-      <c r="K105" s="14"/>
+      <c r="K105" s="11"/>
       <c r="L105" s="3">
         <v>90</v>
       </c>
-      <c r="M105" s="6">
-        <v>0</v>
-      </c>
-      <c r="N105" s="6"/>
+      <c r="M105" s="12">
+        <v>0</v>
+      </c>
+      <c r="N105" s="12"/>
       <c r="O105" s="3">
         <v>0</v>
       </c>
-      <c r="P105" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6">
-        <v>90</v>
-      </c>
-      <c r="S105" s="6"/>
+      <c r="P105" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12">
+        <v>90</v>
+      </c>
+      <c r="S105" s="12"/>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L106" s="4">
         <v>90</v>
       </c>
-      <c r="M106" s="12">
-        <v>0</v>
-      </c>
-      <c r="N106" s="12"/>
+      <c r="M106" s="13">
+        <v>0</v>
+      </c>
+      <c r="N106" s="13"/>
       <c r="O106" s="4">
         <v>0</v>
       </c>
-      <c r="P106" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12">
-        <v>90</v>
-      </c>
-      <c r="S106" s="12"/>
+      <c r="P106" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13">
+        <v>90</v>
+      </c>
+      <c r="S106" s="13"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="9"/>
       <c r="F107" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G107" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H107" s="15"/>
+      <c r="G107" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="8"/>
+      <c r="D108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="9"/>
       <c r="F108" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="14">
+      <c r="J108" s="11">
         <v>44805</v>
       </c>
-      <c r="K108" s="14"/>
+      <c r="K108" s="11"/>
       <c r="L108" s="3">
         <v>90</v>
       </c>
-      <c r="M108" s="6">
-        <v>0</v>
-      </c>
-      <c r="N108" s="6"/>
+      <c r="M108" s="12">
+        <v>0</v>
+      </c>
+      <c r="N108" s="12"/>
       <c r="O108" s="3">
         <v>0</v>
       </c>
-      <c r="P108" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6">
-        <v>90</v>
-      </c>
-      <c r="S108" s="6"/>
+      <c r="P108" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12">
+        <v>90</v>
+      </c>
+      <c r="S108" s="12"/>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L109" s="4">
         <v>90</v>
       </c>
-      <c r="M109" s="12">
-        <v>0</v>
-      </c>
-      <c r="N109" s="12"/>
+      <c r="M109" s="13">
+        <v>0</v>
+      </c>
+      <c r="N109" s="13"/>
       <c r="O109" s="4">
         <v>0</v>
       </c>
-      <c r="P109" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12">
-        <v>90</v>
-      </c>
-      <c r="S109" s="12"/>
+      <c r="P109" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13">
+        <v>90</v>
+      </c>
+      <c r="S109" s="13"/>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="9"/>
       <c r="F110" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G110" s="15" t="s">
+      <c r="G110" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H110" s="15"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D111" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="8"/>
+      <c r="D111" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="9"/>
       <c r="F111" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J111" s="14">
+      <c r="J111" s="11">
         <v>44805</v>
       </c>
-      <c r="K111" s="14"/>
+      <c r="K111" s="11"/>
       <c r="L111" s="3">
         <v>90</v>
       </c>
-      <c r="M111" s="6">
-        <v>0</v>
-      </c>
-      <c r="N111" s="6"/>
+      <c r="M111" s="12">
+        <v>0</v>
+      </c>
+      <c r="N111" s="12"/>
       <c r="O111" s="3">
         <v>0</v>
       </c>
-      <c r="P111" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6">
-        <v>90</v>
-      </c>
-      <c r="S111" s="6"/>
+      <c r="P111" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12">
+        <v>90</v>
+      </c>
+      <c r="S111" s="12"/>
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L112" s="4">
         <v>90</v>
       </c>
-      <c r="M112" s="12">
-        <v>0</v>
-      </c>
-      <c r="N112" s="12"/>
+      <c r="M112" s="13">
+        <v>0</v>
+      </c>
+      <c r="N112" s="13"/>
       <c r="O112" s="4">
         <v>0</v>
       </c>
-      <c r="P112" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12">
-        <v>90</v>
-      </c>
-      <c r="S112" s="12"/>
+      <c r="P112" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13">
+        <v>90</v>
+      </c>
+      <c r="S112" s="13"/>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="9"/>
       <c r="F113" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G113" s="15" t="s">
+      <c r="G113" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H113" s="15"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D114" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="8"/>
+      <c r="D114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="9"/>
       <c r="F114" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J114" s="14">
+      <c r="J114" s="11">
         <v>44805</v>
       </c>
-      <c r="K114" s="14"/>
+      <c r="K114" s="11"/>
       <c r="L114" s="3">
         <v>90</v>
       </c>
-      <c r="M114" s="6">
-        <v>0</v>
-      </c>
-      <c r="N114" s="6"/>
+      <c r="M114" s="12">
+        <v>0</v>
+      </c>
+      <c r="N114" s="12"/>
       <c r="O114" s="3">
         <v>0</v>
       </c>
-      <c r="P114" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6">
-        <v>90</v>
-      </c>
-      <c r="S114" s="6"/>
+      <c r="P114" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12">
+        <v>90</v>
+      </c>
+      <c r="S114" s="12"/>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L115" s="4">
         <v>90</v>
       </c>
-      <c r="M115" s="12">
-        <v>0</v>
-      </c>
-      <c r="N115" s="12"/>
+      <c r="M115" s="13">
+        <v>0</v>
+      </c>
+      <c r="N115" s="13"/>
       <c r="O115" s="4">
         <v>0</v>
       </c>
-      <c r="P115" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12">
-        <v>90</v>
-      </c>
-      <c r="S115" s="12"/>
+      <c r="P115" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13">
+        <v>90</v>
+      </c>
+      <c r="S115" s="13"/>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G116" s="15" t="s">
+      <c r="G116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H116" s="15"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D117" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="8"/>
+      <c r="D117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="9"/>
       <c r="F117" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="14">
+      <c r="J117" s="11">
         <v>44805</v>
       </c>
-      <c r="K117" s="14"/>
+      <c r="K117" s="11"/>
       <c r="L117" s="3">
         <v>90</v>
       </c>
-      <c r="M117" s="6">
-        <v>0</v>
-      </c>
-      <c r="N117" s="6"/>
+      <c r="M117" s="12">
+        <v>0</v>
+      </c>
+      <c r="N117" s="12"/>
       <c r="O117" s="3">
         <v>0</v>
       </c>
-      <c r="P117" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6">
-        <v>90</v>
-      </c>
-      <c r="S117" s="6"/>
+      <c r="P117" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12">
+        <v>90</v>
+      </c>
+      <c r="S117" s="12"/>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L118" s="4">
         <v>90</v>
       </c>
-      <c r="M118" s="12">
-        <v>0</v>
-      </c>
-      <c r="N118" s="12"/>
+      <c r="M118" s="13">
+        <v>0</v>
+      </c>
+      <c r="N118" s="13"/>
       <c r="O118" s="4">
         <v>0</v>
       </c>
-      <c r="P118" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12">
-        <v>90</v>
-      </c>
-      <c r="S118" s="12"/>
+      <c r="P118" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13">
+        <v>90</v>
+      </c>
+      <c r="S118" s="13"/>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="9"/>
       <c r="F119" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G119" s="15" t="s">
+      <c r="G119" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H119" s="15"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D120" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="8"/>
+      <c r="D120" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="9"/>
       <c r="F120" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="11">
         <v>44652</v>
       </c>
-      <c r="K120" s="14"/>
+      <c r="K120" s="11"/>
       <c r="L120" s="3">
         <v>0</v>
       </c>
-      <c r="M120" s="6">
-        <v>0</v>
-      </c>
-      <c r="N120" s="6"/>
+      <c r="M120" s="12">
+        <v>0</v>
+      </c>
+      <c r="N120" s="12"/>
       <c r="O120" s="3">
         <v>0</v>
       </c>
-      <c r="P120" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6">
-        <v>90</v>
-      </c>
-      <c r="S120" s="6"/>
+      <c r="P120" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12">
+        <v>90</v>
+      </c>
+      <c r="S120" s="12"/>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D121" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="8"/>
+      <c r="D121" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="9"/>
       <c r="F121" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="11">
         <v>44682</v>
       </c>
-      <c r="K121" s="14"/>
+      <c r="K121" s="11"/>
       <c r="L121" s="3">
         <v>0</v>
       </c>
-      <c r="M121" s="6">
-        <v>0</v>
-      </c>
-      <c r="N121" s="6"/>
+      <c r="M121" s="12">
+        <v>0</v>
+      </c>
+      <c r="N121" s="12"/>
       <c r="O121" s="3">
         <v>0</v>
       </c>
-      <c r="P121" s="6">
+      <c r="P121" s="12">
         <v>795</v>
       </c>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6">
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12">
         <v>795</v>
       </c>
-      <c r="S121" s="6"/>
+      <c r="S121" s="12"/>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D122" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="8"/>
+      <c r="D122" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="9"/>
       <c r="F122" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="11">
         <v>44713</v>
       </c>
-      <c r="K122" s="14"/>
+      <c r="K122" s="11"/>
       <c r="L122" s="3">
         <v>0</v>
       </c>
-      <c r="M122" s="6">
-        <v>0</v>
-      </c>
-      <c r="N122" s="6"/>
+      <c r="M122" s="12">
+        <v>0</v>
+      </c>
+      <c r="N122" s="12"/>
       <c r="O122" s="3">
         <v>0</v>
       </c>
-      <c r="P122" s="6">
+      <c r="P122" s="12">
         <v>795</v>
       </c>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6">
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12">
         <v>795</v>
       </c>
-      <c r="S122" s="6"/>
+      <c r="S122" s="12"/>
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D123" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="8"/>
+      <c r="D123" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="9"/>
       <c r="F123" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J123" s="11">
         <v>44743</v>
       </c>
-      <c r="K123" s="14"/>
+      <c r="K123" s="11"/>
       <c r="L123" s="3">
         <v>0</v>
       </c>
-      <c r="M123" s="6">
-        <v>0</v>
-      </c>
-      <c r="N123" s="6"/>
+      <c r="M123" s="12">
+        <v>0</v>
+      </c>
+      <c r="N123" s="12"/>
       <c r="O123" s="3">
         <v>795</v>
       </c>
-      <c r="P123" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6">
+      <c r="P123" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12">
         <v>795</v>
       </c>
-      <c r="S123" s="6"/>
+      <c r="S123" s="12"/>
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D124" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="8"/>
+      <c r="D124" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="9"/>
       <c r="F124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="11">
         <v>44774</v>
       </c>
-      <c r="K124" s="14"/>
+      <c r="K124" s="11"/>
       <c r="L124" s="3">
         <v>0</v>
       </c>
-      <c r="M124" s="6">
+      <c r="M124" s="12">
         <v>795</v>
       </c>
-      <c r="N124" s="6"/>
+      <c r="N124" s="12"/>
       <c r="O124" s="3">
         <v>0</v>
       </c>
-      <c r="P124" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6">
+      <c r="P124" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12">
         <v>795</v>
       </c>
-      <c r="S124" s="6"/>
+      <c r="S124" s="12"/>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D125" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="8"/>
+      <c r="D125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="9"/>
       <c r="F125" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="11">
         <v>44805</v>
       </c>
-      <c r="K125" s="14"/>
+      <c r="K125" s="11"/>
       <c r="L125" s="3">
         <v>795</v>
       </c>
-      <c r="M125" s="6">
-        <v>0</v>
-      </c>
-      <c r="N125" s="6"/>
+      <c r="M125" s="12">
+        <v>0</v>
+      </c>
+      <c r="N125" s="12"/>
       <c r="O125" s="3">
         <v>0</v>
       </c>
-      <c r="P125" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6">
+      <c r="P125" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12">
         <v>795</v>
       </c>
-      <c r="S125" s="6"/>
+      <c r="S125" s="12"/>
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L126" s="4">
         <v>795</v>
       </c>
-      <c r="M126" s="12">
+      <c r="M126" s="13">
         <v>795</v>
       </c>
-      <c r="N126" s="12"/>
+      <c r="N126" s="13"/>
       <c r="O126" s="4">
         <v>795</v>
       </c>
-      <c r="P126" s="12">
+      <c r="P126" s="13">
         <v>1680</v>
       </c>
-      <c r="Q126" s="12"/>
-      <c r="R126" s="12">
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13">
         <v>4065</v>
       </c>
-      <c r="S126" s="12"/>
+      <c r="S126" s="13"/>
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="9"/>
       <c r="F127" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G127" s="15" t="s">
+      <c r="G127" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H127" s="15"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D128" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="8"/>
+      <c r="D128" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="9"/>
       <c r="F128" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="14">
+      <c r="J128" s="11">
         <v>44805</v>
       </c>
-      <c r="K128" s="14"/>
+      <c r="K128" s="11"/>
       <c r="L128" s="3">
         <v>90</v>
       </c>
-      <c r="M128" s="6">
-        <v>0</v>
-      </c>
-      <c r="N128" s="6"/>
+      <c r="M128" s="12">
+        <v>0</v>
+      </c>
+      <c r="N128" s="12"/>
       <c r="O128" s="3">
         <v>0</v>
       </c>
-      <c r="P128" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6">
-        <v>90</v>
-      </c>
-      <c r="S128" s="6"/>
+      <c r="P128" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12">
+        <v>90</v>
+      </c>
+      <c r="S128" s="12"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L129" s="4">
         <v>90</v>
       </c>
-      <c r="M129" s="12">
-        <v>0</v>
-      </c>
-      <c r="N129" s="12"/>
+      <c r="M129" s="13">
+        <v>0</v>
+      </c>
+      <c r="N129" s="13"/>
       <c r="O129" s="4">
         <v>0</v>
       </c>
-      <c r="P129" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12">
-        <v>90</v>
-      </c>
-      <c r="S129" s="12"/>
+      <c r="P129" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="13">
+        <v>90</v>
+      </c>
+      <c r="S129" s="13"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="9"/>
       <c r="F130" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G130" s="15" t="s">
+      <c r="G130" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H130" s="15"/>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D131" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="8"/>
+      <c r="D131" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="9"/>
       <c r="F131" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="14">
+      <c r="J131" s="11">
         <v>44805</v>
       </c>
-      <c r="K131" s="14"/>
+      <c r="K131" s="11"/>
       <c r="L131" s="3">
         <v>90</v>
       </c>
-      <c r="M131" s="6">
-        <v>0</v>
-      </c>
-      <c r="N131" s="6"/>
+      <c r="M131" s="12">
+        <v>0</v>
+      </c>
+      <c r="N131" s="12"/>
       <c r="O131" s="3">
         <v>0</v>
       </c>
-      <c r="P131" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6">
-        <v>90</v>
-      </c>
-      <c r="S131" s="6"/>
+      <c r="P131" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12">
+        <v>90</v>
+      </c>
+      <c r="S131" s="12"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L132" s="4">
         <v>90</v>
       </c>
-      <c r="M132" s="12">
-        <v>0</v>
-      </c>
-      <c r="N132" s="12"/>
+      <c r="M132" s="13">
+        <v>0</v>
+      </c>
+      <c r="N132" s="13"/>
       <c r="O132" s="4">
         <v>0</v>
       </c>
-      <c r="P132" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="12"/>
-      <c r="R132" s="12">
-        <v>90</v>
-      </c>
-      <c r="S132" s="12"/>
+      <c r="P132" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13">
+        <v>90</v>
+      </c>
+      <c r="S132" s="13"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="8"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="9"/>
       <c r="F133" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G133" s="15" t="s">
+      <c r="G133" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H133" s="15"/>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D134" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="8"/>
+      <c r="D134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="9"/>
       <c r="F134" s="2" t="s">
         <v>110</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J134" s="14">
+      <c r="J134" s="11">
         <v>44774</v>
       </c>
-      <c r="K134" s="14"/>
+      <c r="K134" s="11"/>
       <c r="L134" s="3">
         <v>0</v>
       </c>
-      <c r="M134" s="6">
-        <v>90</v>
-      </c>
-      <c r="N134" s="6"/>
+      <c r="M134" s="12">
+        <v>90</v>
+      </c>
+      <c r="N134" s="12"/>
       <c r="O134" s="3">
         <v>0</v>
       </c>
-      <c r="P134" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6">
-        <v>90</v>
-      </c>
-      <c r="S134" s="6"/>
+      <c r="P134" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12">
+        <v>90</v>
+      </c>
+      <c r="S134" s="12"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D135" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="8"/>
+      <c r="D135" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="9"/>
       <c r="F135" s="2" t="s">
         <v>110</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J135" s="14">
+      <c r="J135" s="11">
         <v>44805</v>
       </c>
-      <c r="K135" s="14"/>
+      <c r="K135" s="11"/>
       <c r="L135" s="3">
         <v>795</v>
       </c>
-      <c r="M135" s="6">
-        <v>0</v>
-      </c>
-      <c r="N135" s="6"/>
+      <c r="M135" s="12">
+        <v>0</v>
+      </c>
+      <c r="N135" s="12"/>
       <c r="O135" s="3">
         <v>0</v>
       </c>
-      <c r="P135" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6">
+      <c r="P135" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12">
         <v>795</v>
       </c>
-      <c r="S135" s="6"/>
+      <c r="S135" s="12"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L136" s="4">
         <v>795</v>
       </c>
-      <c r="M136" s="12">
-        <v>90</v>
-      </c>
-      <c r="N136" s="12"/>
+      <c r="M136" s="13">
+        <v>90</v>
+      </c>
+      <c r="N136" s="13"/>
       <c r="O136" s="4">
         <v>0</v>
       </c>
-      <c r="P136" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="12"/>
-      <c r="R136" s="12">
+      <c r="P136" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="13"/>
+      <c r="R136" s="13">
         <v>885</v>
       </c>
-      <c r="S136" s="12"/>
+      <c r="S136" s="13"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L137" s="5">
         <v>40917.739999999991</v>
       </c>
-      <c r="M137" s="13">
+      <c r="M137" s="14">
         <v>3649.6</v>
       </c>
-      <c r="N137" s="13"/>
+      <c r="N137" s="14"/>
       <c r="O137" s="5">
         <v>1914.6</v>
       </c>
-      <c r="P137" s="13">
+      <c r="P137" s="14">
         <v>6679.2000000000016</v>
       </c>
-      <c r="Q137" s="13"/>
-      <c r="R137" s="13">
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14">
         <v>53161.139999999978</v>
       </c>
-      <c r="S137" s="13"/>
+      <c r="S137" s="14"/>
     </row>
     <row r="138" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="9"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="10"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11" t="s">
+      <c r="B140" s="15"/>
+      <c r="C140" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
+      <c r="D140" s="15"/>
+      <c r="E140" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11" t="s">
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="L140" s="11" t="s">
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="L140" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11" t="s">
+      <c r="M140" s="15"/>
+      <c r="N140" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="11" t="s">
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
+      <c r="R140" s="15"/>
+      <c r="S140" s="15"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8" t="s">
+      <c r="B141" s="9"/>
+      <c r="C141" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="6">
+      <c r="D141" s="9"/>
+      <c r="E141" s="12">
         <v>33094.04</v>
       </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6">
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12">
         <v>3495</v>
       </c>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="L141" s="6">
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="L141" s="12">
         <v>1760</v>
       </c>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6">
+      <c r="M141" s="12"/>
+      <c r="N141" s="12">
         <v>5816.2</v>
       </c>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6">
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12">
         <v>44165.24</v>
       </c>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8" t="s">
+      <c r="B142" s="9"/>
+      <c r="C142" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="6">
+      <c r="D142" s="9"/>
+      <c r="E142" s="12">
         <v>7823.7</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6">
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12">
         <v>154.6</v>
       </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="L142" s="6">
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="L142" s="12">
         <v>154.6</v>
       </c>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6">
+      <c r="M142" s="12"/>
+      <c r="N142" s="12">
         <v>773</v>
       </c>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6">
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12">
         <v>8905.9</v>
       </c>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8" t="s">
+      <c r="B143" s="9"/>
+      <c r="C143" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="6">
-        <v>0</v>
-      </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6">
-        <v>0</v>
-      </c>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="L143" s="6">
-        <v>0</v>
-      </c>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6">
-        <v>90</v>
-      </c>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6">
-        <v>90</v>
-      </c>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="12">
+        <v>0</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12">
+        <v>0</v>
+      </c>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="L143" s="12">
+        <v>0</v>
+      </c>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12">
+        <v>90</v>
+      </c>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12">
+        <v>90</v>
+      </c>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E144" s="7">
+      <c r="E144" s="16">
         <v>40917.74</v>
       </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7">
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16">
         <v>3649.6</v>
       </c>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="L144" s="7">
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="L144" s="16">
         <v>1914.6</v>
       </c>
-      <c r="M144" s="7"/>
-      <c r="N144" s="7">
+      <c r="M144" s="16"/>
+      <c r="N144" s="16">
         <v>6679.2</v>
       </c>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7">
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16">
         <v>53161.14</v>
       </c>
-      <c r="R144" s="7"/>
-      <c r="S144" s="7"/>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="572">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q141:S141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:P142"/>
+    <mergeCell ref="Q142:S142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:P141"/>
+    <mergeCell ref="A138:R138"/>
+    <mergeCell ref="A139:R139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:P140"/>
+    <mergeCell ref="Q140:S140"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="R136:S136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="R137:S137"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="R134:S134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="R129:S129"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="R126:S126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="R121:S121"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="R117:S117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="R112:S112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="R108:S108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="R109:S109"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="R106:S106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="R90:S90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="P67:Q67"/>
     <mergeCell ref="R67:S67"/>
@@ -4898,318 +4966,250 @@
     <mergeCell ref="M66:N66"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="R66:S66"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="R90:S90"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="R108:S108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="R109:S109"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="R106:S106"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="R112:S112"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="R117:S117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="R121:S121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="R129:S129"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="R126:S126"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="R136:S136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="R137:S137"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="R134:S134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="A138:R138"/>
-    <mergeCell ref="A139:R139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="N140:P140"/>
-    <mergeCell ref="Q140:S140"/>
-    <mergeCell ref="Q141:S141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="L142:M142"/>
-    <mergeCell ref="N142:P142"/>
-    <mergeCell ref="Q142:S142"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="E141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="N141:P141"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="L144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
